--- a/medicine/Mort/Cimetière_central_de_Toulon/Cimetière_central_de_Toulon.xlsx
+++ b/medicine/Mort/Cimetière_central_de_Toulon/Cimetière_central_de_Toulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_central_de_Toulon</t>
+          <t>Cimetière_central_de_Toulon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière central de Toulon est un des deux cimetières municipaux de la ville de Toulon dans le Var[1], l'autre à l'ouest étant le cimetière Lagoubran, avenue Aristide-Briand. C'est le plus important de la ville. Il est connu pour abriter la sépulture de Raimu. Il se trouve place du Souvenir-Français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière central de Toulon est un des deux cimetières municipaux de la ville de Toulon dans le Var, l'autre à l'ouest étant le cimetière Lagoubran, avenue Aristide-Briand. C'est le plus important de la ville. Il est connu pour abriter la sépulture de Raimu. Il se trouve place du Souvenir-Français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_central_de_Toulon</t>
+          <t>Cimetière_central_de_Toulon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière central de Toulon ouvre en 1829, pour à terme remplacer deux autres cimetières, celui de la Porte-Royale situé à l’ouest et celui de Saint-Lazare (situé entre la porte d’Italie et le rond-point de Bir-Hakeim), détruits lorsque les remparts de la ville sont démolis sous Napoléon III. Ce cimetière est renommé pour son patrimoine artistique et historique important, avec un grand nombre de statues, bustes et médaillons et des chapelles funéraires imposantes ou non.
-De nombreuses tombes sont liées au passé maritime du port militaire de Toulon, ainsi que des monuments commémoratifs comme celui dédié aux victimes de l'explosion du cuirassé Iéna qui fit 118 morts, le 12 mars 1907. Le cimetière possède aussi un carré des officiers coloniaux[2].
-Anecdote
-En 1886, une lutte entre clergé et république laisse un patrimoine original. Le maire d'alors, Henri Dutasta, élu sur un programme anticlérical, affirme que la grande croix de bois du cimetière est vermoulue et constitue un danger, il la fait remplacer par une fontaine « réclamée depuis longtemps par les personnes qui ont à entretenir des fleurs sur leurs tombes ». L’archiprêtre de la cathédrale achète alors la parcelle mitoyenne du cimetière et le 8 avril 1887, une grande croix de fer y est solennellement dressée, juste dans le prolongement de l'allée centrale[3].
+De nombreuses tombes sont liées au passé maritime du port militaire de Toulon, ainsi que des monuments commémoratifs comme celui dédié aux victimes de l'explosion du cuirassé Iéna qui fit 118 morts, le 12 mars 1907. Le cimetière possède aussi un carré des officiers coloniaux.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_central_de_Toulon</t>
+          <t>Cimetière_central_de_Toulon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire et description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anecdote</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1886, une lutte entre clergé et république laisse un patrimoine original. Le maire d'alors, Henri Dutasta, élu sur un programme anticlérical, affirme que la grande croix de bois du cimetière est vermoulue et constitue un danger, il la fait remplacer par une fontaine « réclamée depuis longtemps par les personnes qui ont à entretenir des fleurs sur leurs tombes ». L’archiprêtre de la cathédrale achète alors la parcelle mitoyenne du cimetière et le 8 avril 1887, une grande croix de fer y est solennellement dressée, juste dans le prolongement de l'allée centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_central_de_Toulon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_central_de_Toulon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean-Baptiste Abel (1863-1921), député du Var, ministre du travail, gouverneur de l'Algérie (buste)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste Abel (1863-1921), député du Var, ministre du travail, gouverneur de l'Algérie (buste)
 Jean Aicard (1848-1921), poète, romancier et dramaturge (médaillon)
 André-Joseph Allar (1845-1926), sculpteur
 Maurice Arreckx (1917-2001), député, sénateur, maire de Toulon
@@ -589,10 +640,10 @@
 Vice-amiral Paul Moreau (1858-1929), commandant de l'escadre Syrie-Salonique, préfet maritime de Brest
 René Moreau (1917-1984), auteur de Huit ans otage chez les Viets, ambassadeur au Burundi
 Pierre Moustiers (née Pierre Rossi, 1924-2016), scénariste et écrivain
-Raimu (né Jules Muraire, 1883-1946), acteur, sociétaire de la Comédie-Française[4]
+Raimu (né Jules Muraire, 1883-1946), acteur, sociétaire de la Comédie-Française
 Amiral Pierre-Gustave Roze (1812-1883), gouverneur de la Cochinchine française, préfet maritime de Cherbourg
 Abbé Léon Spariat (1861-1936), prêtre, prédicateur et écrivain de langue provençale, majoral du Félibrige
-Jacques Voyer (1922-1944), Compagnon de la Libération[2]</t>
+Jacques Voyer (1922-1944), Compagnon de la Libération</t>
         </is>
       </c>
     </row>
